--- a/Spring 2021 LLO8180 due dates_011121.xlsx
+++ b/Spring 2021 LLO8180 due dates_011121.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lacey\Google Drive\Teaching\Vanderbilt\LLO 8180 - Applied Stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blmos\Dropbox\My PC (DESKTOP-DRKFEL6)\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDDD9FB-FDEA-461A-9564-26EB06E35959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720BB092-D1A1-41DA-B9EB-7C5657C99C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1365" windowWidth="29040" windowHeight="15840" xr2:uid="{B29FE5CD-F94A-422C-B2B1-CD94BF271377}"/>
+    <workbookView xWindow="2415" yWindow="600" windowWidth="24780" windowHeight="14910" xr2:uid="{B29FE5CD-F94A-422C-B2B1-CD94BF271377}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="18">
-        <v>44216</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="18">
-        <v>44223</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="18">
-        <v>44230</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="13">
-        <v>44237</v>
+        <v>44238</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="13">
-        <v>44244</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="13">
-        <v>44251</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="13">
-        <v>44258</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="13">
-        <v>44265</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="13">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -989,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="13">
-        <v>44279</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="13">
-        <v>44286</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="13">
-        <v>44293</v>
+        <v>44294</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="13">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>36</v>
@@ -1062,7 +1062,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="16">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>35</v>
